--- a/resources/experiment 1/predictions/multiple/RandomForestRegressor/average time/Enfermedades cardíacas.xlsx
+++ b/resources/experiment 1/predictions/multiple/RandomForestRegressor/average time/Enfermedades cardíacas.xlsx
@@ -497,2700 +497,2700 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>21.57641514411767</v>
+        <v>21.59510267852874</v>
       </c>
       <c r="B2" t="n">
-        <v>17.24261910561464</v>
+        <v>17.16486713919599</v>
       </c>
       <c r="C2" t="n">
-        <v>25.96766126001851</v>
+        <v>25.8811931521828</v>
       </c>
       <c r="D2" t="n">
-        <v>21.34796049432905</v>
+        <v>21.35440284743693</v>
       </c>
       <c r="E2" t="n">
-        <v>17.48678879979305</v>
+        <v>17.40299466822062</v>
       </c>
       <c r="F2" t="n">
-        <v>25.32449772230203</v>
+        <v>25.32300762990845</v>
       </c>
       <c r="G2" t="n">
-        <v>21.37187576269566</v>
+        <v>21.37839800486404</v>
       </c>
       <c r="H2" t="n">
-        <v>17.57843490980017</v>
+        <v>17.3929895285231</v>
       </c>
       <c r="I2" t="n">
-        <v>25.32415432628318</v>
+        <v>25.35310743577421</v>
       </c>
       <c r="J2" t="n">
-        <v>21.28234517646173</v>
+        <v>21.28073472940682</v>
       </c>
       <c r="K2" t="n">
-        <v>15.71852920625683</v>
+        <v>15.56135191144144</v>
       </c>
       <c r="L2" t="n">
-        <v>26.30343364470369</v>
+        <v>26.44314828797459</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>20.75694341366744</v>
+        <v>20.51708529443538</v>
       </c>
       <c r="B3" t="n">
-        <v>14.7952372325354</v>
+        <v>14.79184655716759</v>
       </c>
       <c r="C3" t="n">
-        <v>26.89275479160121</v>
+        <v>26.63900028004259</v>
       </c>
       <c r="D3" t="n">
-        <v>20.5016819960646</v>
+        <v>20.52001705526904</v>
       </c>
       <c r="E3" t="n">
-        <v>15.83895780685919</v>
+        <v>15.86803307018651</v>
       </c>
       <c r="F3" t="n">
-        <v>25.59912608976023</v>
+        <v>25.68062792727926</v>
       </c>
       <c r="G3" t="n">
-        <v>20.62897381053865</v>
+        <v>20.63534957147149</v>
       </c>
       <c r="H3" t="n">
-        <v>15.85095598821289</v>
+        <v>15.98338546556777</v>
       </c>
       <c r="I3" t="n">
-        <v>25.88002766518008</v>
+        <v>26.18423390620738</v>
       </c>
       <c r="J3" t="n">
-        <v>20.17583570818015</v>
+        <v>20.26315248556812</v>
       </c>
       <c r="K3" t="n">
-        <v>13.48655698966573</v>
+        <v>12.66669661725458</v>
       </c>
       <c r="L3" t="n">
-        <v>28.91511472569714</v>
+        <v>28.783099225375</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>20.52100599698236</v>
+        <v>20.42564946041925</v>
       </c>
       <c r="B4" t="n">
-        <v>15.26805240732206</v>
+        <v>14.90339195938424</v>
       </c>
       <c r="C4" t="n">
-        <v>26.26394592514333</v>
+        <v>26.30819378963848</v>
       </c>
       <c r="D4" t="n">
-        <v>20.42691595846745</v>
+        <v>20.58993383083279</v>
       </c>
       <c r="E4" t="n">
-        <v>16.68597873325671</v>
+        <v>16.77577181156234</v>
       </c>
       <c r="F4" t="n">
-        <v>25.27058824031508</v>
+        <v>25.35985818870851</v>
       </c>
       <c r="G4" t="n">
-        <v>20.56557238825455</v>
+        <v>20.65069402303473</v>
       </c>
       <c r="H4" t="n">
-        <v>16.59600388412014</v>
+        <v>16.30458269649962</v>
       </c>
       <c r="I4" t="n">
-        <v>25.27282537638184</v>
+        <v>25.12440711913034</v>
       </c>
       <c r="J4" t="n">
-        <v>20.54009809946081</v>
+        <v>20.53856684799673</v>
       </c>
       <c r="K4" t="n">
-        <v>13.9088106859669</v>
+        <v>14.22826352602013</v>
       </c>
       <c r="L4" t="n">
-        <v>27.63989572720292</v>
+        <v>27.62589674657528</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>24.88831244295186</v>
+        <v>25.10235696378346</v>
       </c>
       <c r="B5" t="n">
-        <v>17.2096723263605</v>
+        <v>17.1834064487988</v>
       </c>
       <c r="C5" t="n">
-        <v>33.53330201413781</v>
+        <v>33.37853650428006</v>
       </c>
       <c r="D5" t="n">
-        <v>24.87149765326932</v>
+        <v>24.84957728230373</v>
       </c>
       <c r="E5" t="n">
-        <v>19.09367098474389</v>
+        <v>19.08675408631136</v>
       </c>
       <c r="F5" t="n">
-        <v>31.11782122783056</v>
+        <v>30.96410173192474</v>
       </c>
       <c r="G5" t="n">
-        <v>24.8622602108492</v>
+        <v>24.84696746047559</v>
       </c>
       <c r="H5" t="n">
-        <v>19.44795988259617</v>
+        <v>19.63871066867327</v>
       </c>
       <c r="I5" t="n">
-        <v>30.68830020433179</v>
+        <v>30.84712580946584</v>
       </c>
       <c r="J5" t="n">
-        <v>24.80877218724895</v>
+        <v>24.92100530049822</v>
       </c>
       <c r="K5" t="n">
-        <v>15.59924533312663</v>
+        <v>15.42132899640758</v>
       </c>
       <c r="L5" t="n">
-        <v>33.67582345613394</v>
+        <v>33.88854220256908</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>26.19597689897838</v>
+        <v>26.23656796280907</v>
       </c>
       <c r="B6" t="n">
-        <v>20.62238032201831</v>
+        <v>20.9831717473742</v>
       </c>
       <c r="C6" t="n">
-        <v>31.95959386941796</v>
+        <v>32.06991534640071</v>
       </c>
       <c r="D6" t="n">
-        <v>26.24262533303252</v>
+        <v>26.16804106725778</v>
       </c>
       <c r="E6" t="n">
-        <v>21.79652347745669</v>
+        <v>21.55595226553551</v>
       </c>
       <c r="F6" t="n">
-        <v>31.03064606871267</v>
+        <v>30.91366381822304</v>
       </c>
       <c r="G6" t="n">
-        <v>26.04546745986228</v>
+        <v>26.06897289781272</v>
       </c>
       <c r="H6" t="n">
-        <v>21.40057381165433</v>
+        <v>21.29649701813049</v>
       </c>
       <c r="I6" t="n">
-        <v>30.06561183670404</v>
+        <v>29.97212576749705</v>
       </c>
       <c r="J6" t="n">
-        <v>26.15838834093618</v>
+        <v>26.08984447958537</v>
       </c>
       <c r="K6" t="n">
-        <v>18.55676618051818</v>
+        <v>18.79691981388778</v>
       </c>
       <c r="L6" t="n">
-        <v>33.65747000341935</v>
+        <v>33.6606738472116</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>19.3417395480341</v>
+        <v>19.28676043253983</v>
       </c>
       <c r="B7" t="n">
-        <v>15.74661537276545</v>
+        <v>15.55795629111564</v>
       </c>
       <c r="C7" t="n">
-        <v>23.02130594821442</v>
+        <v>23.00083944141179</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28663826901308</v>
+        <v>19.22270147470127</v>
       </c>
       <c r="E7" t="n">
-        <v>16.65065180193816</v>
+        <v>16.50284260160428</v>
       </c>
       <c r="F7" t="n">
-        <v>22.29715156998974</v>
+        <v>22.33565806515292</v>
       </c>
       <c r="G7" t="n">
-        <v>19.31312748915158</v>
+        <v>19.25149406248472</v>
       </c>
       <c r="H7" t="n">
-        <v>16.40552979456096</v>
+        <v>16.32426853567365</v>
       </c>
       <c r="I7" t="n">
-        <v>22.35684388108528</v>
+        <v>22.41784633722065</v>
       </c>
       <c r="J7" t="n">
-        <v>19.31680804654802</v>
+        <v>19.2575214940075</v>
       </c>
       <c r="K7" t="n">
-        <v>15.04414805608316</v>
+        <v>14.8579469841044</v>
       </c>
       <c r="L7" t="n">
-        <v>24.25969681845908</v>
+        <v>24.27402221540251</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>9.79897265867538</v>
+        <v>9.804501199766001</v>
       </c>
       <c r="B8" t="n">
-        <v>4.585307206022425</v>
+        <v>4.606137390944709</v>
       </c>
       <c r="C8" t="n">
-        <v>15.53811521306294</v>
+        <v>15.72616194865658</v>
       </c>
       <c r="D8" t="n">
-        <v>10.17363433686989</v>
+        <v>10.20460490844732</v>
       </c>
       <c r="E8" t="n">
-        <v>4.9424169666071</v>
+        <v>4.960628745158511</v>
       </c>
       <c r="F8" t="n">
-        <v>15.73875032954791</v>
+        <v>15.92277901142468</v>
       </c>
       <c r="G8" t="n">
-        <v>9.8815626067754</v>
+        <v>9.892690711222487</v>
       </c>
       <c r="H8" t="n">
-        <v>4.702422907730718</v>
+        <v>4.754768457804875</v>
       </c>
       <c r="I8" t="n">
-        <v>15.97078680605907</v>
+        <v>16.048366966632</v>
       </c>
       <c r="J8" t="n">
-        <v>10.12935826236492</v>
+        <v>10.08524385747214</v>
       </c>
       <c r="K8" t="n">
-        <v>4.351434690398045</v>
+        <v>4.369642538803755</v>
       </c>
       <c r="L8" t="n">
-        <v>16.3586995046033</v>
+        <v>16.0498294165442</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>24.67198920163735</v>
+        <v>24.49557118562557</v>
       </c>
       <c r="B9" t="n">
-        <v>19.21621438157805</v>
+        <v>19.58773744998818</v>
       </c>
       <c r="C9" t="n">
-        <v>29.78736989374865</v>
+        <v>29.57816445440926</v>
       </c>
       <c r="D9" t="n">
-        <v>24.44477261215385</v>
+        <v>24.35732492344094</v>
       </c>
       <c r="E9" t="n">
-        <v>20.28419109215537</v>
+        <v>20.68077690650009</v>
       </c>
       <c r="F9" t="n">
-        <v>29.20447769073208</v>
+        <v>29.23465809477506</v>
       </c>
       <c r="G9" t="n">
-        <v>24.48317852255803</v>
+        <v>24.45477449313973</v>
       </c>
       <c r="H9" t="n">
-        <v>19.99430733056791</v>
+        <v>20.23853292882794</v>
       </c>
       <c r="I9" t="n">
-        <v>28.58408867952912</v>
+        <v>28.65878041094507</v>
       </c>
       <c r="J9" t="n">
-        <v>24.59317890529456</v>
+        <v>24.43107471512089</v>
       </c>
       <c r="K9" t="n">
-        <v>17.65248874486488</v>
+        <v>18.35365372965603</v>
       </c>
       <c r="L9" t="n">
-        <v>31.08414640488312</v>
+        <v>30.94729613767759</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>10.12715741765959</v>
+        <v>10.10803950169479</v>
       </c>
       <c r="B10" t="n">
-        <v>4.870424423244512</v>
+        <v>4.849536079381292</v>
       </c>
       <c r="C10" t="n">
-        <v>16.96958638070442</v>
+        <v>16.74561264892924</v>
       </c>
       <c r="D10" t="n">
-        <v>10.10641373139736</v>
+        <v>10.07033810186338</v>
       </c>
       <c r="E10" t="n">
-        <v>4.883929432975345</v>
+        <v>4.968346129430097</v>
       </c>
       <c r="F10" t="n">
-        <v>16.28424750653332</v>
+        <v>16.15547275302585</v>
       </c>
       <c r="G10" t="n">
-        <v>10.21449595645064</v>
+        <v>10.14930245121946</v>
       </c>
       <c r="H10" t="n">
-        <v>4.949591299190168</v>
+        <v>4.979540167051704</v>
       </c>
       <c r="I10" t="n">
-        <v>16.38585456644195</v>
+        <v>16.3584706269787</v>
       </c>
       <c r="J10" t="n">
-        <v>10.15042963519009</v>
+        <v>10.24229263986252</v>
       </c>
       <c r="K10" t="n">
-        <v>5.1075096294289</v>
+        <v>5.184215816670076</v>
       </c>
       <c r="L10" t="n">
-        <v>17.18730435056377</v>
+        <v>17.1289981608588</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>18.24475941572949</v>
+        <v>18.24826206147254</v>
       </c>
       <c r="B11" t="n">
-        <v>13.02840678702534</v>
+        <v>13.45741500641659</v>
       </c>
       <c r="C11" t="n">
-        <v>22.87455674701462</v>
+        <v>23.03769170375443</v>
       </c>
       <c r="D11" t="n">
-        <v>17.87988719715348</v>
+        <v>17.95453636113771</v>
       </c>
       <c r="E11" t="n">
-        <v>13.20722605233525</v>
+        <v>13.32227179562486</v>
       </c>
       <c r="F11" t="n">
-        <v>22.22552459749961</v>
+        <v>22.49801306678942</v>
       </c>
       <c r="G11" t="n">
-        <v>18.01990470948116</v>
+        <v>18.02936533161887</v>
       </c>
       <c r="H11" t="n">
-        <v>12.85601706246213</v>
+        <v>13.28716803886283</v>
       </c>
       <c r="I11" t="n">
-        <v>22.27227729666801</v>
+        <v>22.56642694919789</v>
       </c>
       <c r="J11" t="n">
-        <v>18.05815108889345</v>
+        <v>18.08471495371761</v>
       </c>
       <c r="K11" t="n">
-        <v>12.31680130265578</v>
+        <v>12.33845802102315</v>
       </c>
       <c r="L11" t="n">
-        <v>23.74723803658443</v>
+        <v>23.7456172361086</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>27.03866441456172</v>
+        <v>27.1115677131326</v>
       </c>
       <c r="B12" t="n">
-        <v>21.17101384024263</v>
+        <v>21.2506421658551</v>
       </c>
       <c r="C12" t="n">
-        <v>32.85284538970705</v>
+        <v>33.04826842997026</v>
       </c>
       <c r="D12" t="n">
-        <v>26.93939980287969</v>
+        <v>26.95773099170725</v>
       </c>
       <c r="E12" t="n">
-        <v>22.21239782687303</v>
+        <v>22.23470931136396</v>
       </c>
       <c r="F12" t="n">
-        <v>31.45785983229494</v>
+        <v>31.46425238371757</v>
       </c>
       <c r="G12" t="n">
-        <v>26.8666599157444</v>
+        <v>26.90177419520302</v>
       </c>
       <c r="H12" t="n">
-        <v>22.02322915889694</v>
+        <v>21.88688090427776</v>
       </c>
       <c r="I12" t="n">
-        <v>30.83694064454441</v>
+        <v>31.12215838240433</v>
       </c>
       <c r="J12" t="n">
-        <v>26.95908427189839</v>
+        <v>26.95902673744995</v>
       </c>
       <c r="K12" t="n">
-        <v>20.2752457679795</v>
+        <v>19.91657623687478</v>
       </c>
       <c r="L12" t="n">
-        <v>34.62634862086696</v>
+        <v>34.59587169435594</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12.9684133845868</v>
+        <v>13.08166118096437</v>
       </c>
       <c r="B13" t="n">
-        <v>7.027046568541683</v>
+        <v>6.941540070563876</v>
       </c>
       <c r="C13" t="n">
-        <v>20.38187870469918</v>
+        <v>20.6867490943229</v>
       </c>
       <c r="D13" t="n">
-        <v>12.65279335631723</v>
+        <v>12.64645150517134</v>
       </c>
       <c r="E13" t="n">
-        <v>6.699437532137737</v>
+        <v>6.63287053638091</v>
       </c>
       <c r="F13" t="n">
-        <v>19.91828175861154</v>
+        <v>20.09137599799751</v>
       </c>
       <c r="G13" t="n">
-        <v>12.73340175202121</v>
+        <v>12.76356934218083</v>
       </c>
       <c r="H13" t="n">
-        <v>7.008190842126099</v>
+        <v>6.992161180041599</v>
       </c>
       <c r="I13" t="n">
-        <v>20.84781621237281</v>
+        <v>20.79265855318442</v>
       </c>
       <c r="J13" t="n">
-        <v>12.39445492561557</v>
+        <v>12.36918069125608</v>
       </c>
       <c r="K13" t="n">
-        <v>6.617363532572623</v>
+        <v>6.581066178766608</v>
       </c>
       <c r="L13" t="n">
-        <v>20.23819438133621</v>
+        <v>20.24958342747923</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>15.15990631455955</v>
+        <v>15.06557880585553</v>
       </c>
       <c r="B14" t="n">
-        <v>9.740105312799853</v>
+        <v>9.669040101475066</v>
       </c>
       <c r="C14" t="n">
-        <v>20.45174061352371</v>
+        <v>20.6357542620481</v>
       </c>
       <c r="D14" t="n">
-        <v>14.8803918895146</v>
+        <v>14.80717655389831</v>
       </c>
       <c r="E14" t="n">
-        <v>9.585525172216123</v>
+        <v>9.591983500468427</v>
       </c>
       <c r="F14" t="n">
-        <v>20.05763465422526</v>
+        <v>20.28281542578516</v>
       </c>
       <c r="G14" t="n">
-        <v>14.82926872942802</v>
+        <v>14.82624967597702</v>
       </c>
       <c r="H14" t="n">
-        <v>9.549722393963837</v>
+        <v>9.615111914463824</v>
       </c>
       <c r="I14" t="n">
-        <v>20.19434746029276</v>
+        <v>20.28669194661037</v>
       </c>
       <c r="J14" t="n">
-        <v>14.9547569284676</v>
+        <v>14.90569967904966</v>
       </c>
       <c r="K14" t="n">
-        <v>8.983838535144322</v>
+        <v>9.137191316678145</v>
       </c>
       <c r="L14" t="n">
-        <v>21.86104419264381</v>
+        <v>22.16973290747474</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>28.99334904146319</v>
+        <v>29.00648910556226</v>
       </c>
       <c r="B15" t="n">
-        <v>21.94900327096878</v>
+        <v>21.9154143597239</v>
       </c>
       <c r="C15" t="n">
-        <v>38.00960269604028</v>
+        <v>38.02299945602295</v>
       </c>
       <c r="D15" t="n">
-        <v>29.00046347786749</v>
+        <v>29.03729888669708</v>
       </c>
       <c r="E15" t="n">
-        <v>23.43680888534042</v>
+        <v>23.34880189623789</v>
       </c>
       <c r="F15" t="n">
-        <v>35.56356226043852</v>
+        <v>35.89938291484022</v>
       </c>
       <c r="G15" t="n">
-        <v>28.80526186118596</v>
+        <v>28.81719103992739</v>
       </c>
       <c r="H15" t="n">
-        <v>23.13384339010181</v>
+        <v>22.81782775571773</v>
       </c>
       <c r="I15" t="n">
-        <v>34.8132197955771</v>
+        <v>34.79880279566178</v>
       </c>
       <c r="J15" t="n">
-        <v>28.94708655935366</v>
+        <v>28.98452635116496</v>
       </c>
       <c r="K15" t="n">
-        <v>20.36819224989301</v>
+        <v>19.97412597975793</v>
       </c>
       <c r="L15" t="n">
-        <v>39.39519170266297</v>
+        <v>40.19678419518552</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>26.21716437256176</v>
+        <v>26.2925193710536</v>
       </c>
       <c r="B16" t="n">
-        <v>19.998643432685</v>
+        <v>20.95879912801248</v>
       </c>
       <c r="C16" t="n">
-        <v>32.08852473052625</v>
+        <v>32.14962153327492</v>
       </c>
       <c r="D16" t="n">
-        <v>26.266694667507</v>
+        <v>26.22517464980096</v>
       </c>
       <c r="E16" t="n">
-        <v>21.81917492196513</v>
+        <v>21.59203956696485</v>
       </c>
       <c r="F16" t="n">
-        <v>31.05897585136465</v>
+        <v>30.9747913848815</v>
       </c>
       <c r="G16" t="n">
-        <v>26.06298052286458</v>
+        <v>26.13522160705743</v>
       </c>
       <c r="H16" t="n">
-        <v>21.25288830515807</v>
+        <v>21.21246060603713</v>
       </c>
       <c r="I16" t="n">
-        <v>30.07099520814478</v>
+        <v>29.93371838080056</v>
       </c>
       <c r="J16" t="n">
-        <v>26.13697588458277</v>
+        <v>26.07737841863934</v>
       </c>
       <c r="K16" t="n">
-        <v>18.84681793262399</v>
+        <v>18.99784642991705</v>
       </c>
       <c r="L16" t="n">
-        <v>33.485212644299</v>
+        <v>33.53665963326222</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>26.95039985596064</v>
+        <v>27.04349284752436</v>
       </c>
       <c r="B17" t="n">
-        <v>21.1780450957832</v>
+        <v>21.16215404452125</v>
       </c>
       <c r="C17" t="n">
-        <v>32.69139098098307</v>
+        <v>32.67178491981682</v>
       </c>
       <c r="D17" t="n">
-        <v>26.97856759039861</v>
+        <v>26.93059610048745</v>
       </c>
       <c r="E17" t="n">
-        <v>22.0959638527595</v>
+        <v>22.18806595100216</v>
       </c>
       <c r="F17" t="n">
-        <v>31.37794129602838</v>
+        <v>31.42298323472921</v>
       </c>
       <c r="G17" t="n">
-        <v>26.89587650875957</v>
+        <v>26.99126459120875</v>
       </c>
       <c r="H17" t="n">
-        <v>22.67653958557441</v>
+        <v>22.49637827316731</v>
       </c>
       <c r="I17" t="n">
-        <v>31.159450048085</v>
+        <v>31.2811190237013</v>
       </c>
       <c r="J17" t="n">
-        <v>27.10931194031662</v>
+        <v>27.14729165539934</v>
       </c>
       <c r="K17" t="n">
-        <v>20.28983566274572</v>
+        <v>20.13573483232103</v>
       </c>
       <c r="L17" t="n">
-        <v>34.47890204495471</v>
+        <v>34.53174586074508</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>20.3642591472535</v>
+        <v>20.32327889308069</v>
       </c>
       <c r="B18" t="n">
-        <v>14.24366768660444</v>
+        <v>14.35779797354279</v>
       </c>
       <c r="C18" t="n">
-        <v>26.26215018369738</v>
+        <v>26.31690352972287</v>
       </c>
       <c r="D18" t="n">
-        <v>20.4152406435345</v>
+        <v>20.56781229879962</v>
       </c>
       <c r="E18" t="n">
-        <v>16.92537424465265</v>
+        <v>16.57991325614569</v>
       </c>
       <c r="F18" t="n">
-        <v>25.51191933735168</v>
+        <v>25.47535552203456</v>
       </c>
       <c r="G18" t="n">
-        <v>20.3415513538495</v>
+        <v>20.58105115909848</v>
       </c>
       <c r="H18" t="n">
-        <v>16.45809851950269</v>
+        <v>16.28555807233145</v>
       </c>
       <c r="I18" t="n">
-        <v>25.13900033158208</v>
+        <v>25.15872515425858</v>
       </c>
       <c r="J18" t="n">
-        <v>20.56037165750273</v>
+        <v>20.54195064037458</v>
       </c>
       <c r="K18" t="n">
-        <v>13.90526336754984</v>
+        <v>13.85865202947143</v>
       </c>
       <c r="L18" t="n">
-        <v>28.2480791924012</v>
+        <v>28.07711108809092</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>18.77589031722003</v>
+        <v>18.7662100675097</v>
       </c>
       <c r="B19" t="n">
-        <v>13.06882198891039</v>
+        <v>13.09387818899456</v>
       </c>
       <c r="C19" t="n">
-        <v>24.9235477046807</v>
+        <v>25.04502139677763</v>
       </c>
       <c r="D19" t="n">
-        <v>18.66356253142502</v>
+        <v>18.63091608308424</v>
       </c>
       <c r="E19" t="n">
-        <v>13.67572553388484</v>
+        <v>13.6268934422023</v>
       </c>
       <c r="F19" t="n">
-        <v>24.04111432492452</v>
+        <v>24.21444823442453</v>
       </c>
       <c r="G19" t="n">
-        <v>18.70629885330823</v>
+        <v>18.71290477194797</v>
       </c>
       <c r="H19" t="n">
-        <v>13.13140096854032</v>
+        <v>13.20597574692259</v>
       </c>
       <c r="I19" t="n">
-        <v>24.27548573954926</v>
+        <v>24.16584464693526</v>
       </c>
       <c r="J19" t="n">
-        <v>18.49555286112001</v>
+        <v>18.5019271427819</v>
       </c>
       <c r="K19" t="n">
-        <v>12.56906370110512</v>
+        <v>12.54689621865506</v>
       </c>
       <c r="L19" t="n">
-        <v>25.81489003005545</v>
+        <v>25.73677554875962</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>29.64315865107683</v>
+        <v>29.67593447276525</v>
       </c>
       <c r="B20" t="n">
-        <v>23.31665144922086</v>
+        <v>22.89004959537908</v>
       </c>
       <c r="C20" t="n">
-        <v>35.8317199498385</v>
+        <v>35.85310273082273</v>
       </c>
       <c r="D20" t="n">
-        <v>29.44023363515912</v>
+        <v>29.55626502153033</v>
       </c>
       <c r="E20" t="n">
-        <v>24.57737108616686</v>
+        <v>24.50528448935547</v>
       </c>
       <c r="F20" t="n">
-        <v>34.26100127064359</v>
+        <v>34.49843145230523</v>
       </c>
       <c r="G20" t="n">
-        <v>29.62201205104832</v>
+        <v>29.60305382637742</v>
       </c>
       <c r="H20" t="n">
-        <v>24.74226553643621</v>
+        <v>24.44683873970535</v>
       </c>
       <c r="I20" t="n">
-        <v>34.34421139247418</v>
+        <v>34.41607493025194</v>
       </c>
       <c r="J20" t="n">
-        <v>29.84113133819949</v>
+        <v>29.8162203232377</v>
       </c>
       <c r="K20" t="n">
-        <v>21.08257996744136</v>
+        <v>21.83858339476832</v>
       </c>
       <c r="L20" t="n">
-        <v>37.94619809101396</v>
+        <v>37.74746363173599</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>28.98501556867314</v>
+        <v>29.16320654292965</v>
       </c>
       <c r="B21" t="n">
-        <v>22.15159194594237</v>
+        <v>21.77084578830402</v>
       </c>
       <c r="C21" t="n">
-        <v>36.74122862911592</v>
+        <v>37.06873943630249</v>
       </c>
       <c r="D21" t="n">
-        <v>29.00712148309627</v>
+        <v>29.03850060503277</v>
       </c>
       <c r="E21" t="n">
-        <v>23.55772495137884</v>
+        <v>23.95306366121611</v>
       </c>
       <c r="F21" t="n">
-        <v>34.66621697882248</v>
+        <v>34.94332153345588</v>
       </c>
       <c r="G21" t="n">
-        <v>28.83649672767115</v>
+        <v>28.918349731761</v>
       </c>
       <c r="H21" t="n">
-        <v>23.28392175982032</v>
+        <v>23.95599044818339</v>
       </c>
       <c r="I21" t="n">
-        <v>34.02356709961552</v>
+        <v>34.0955516923904</v>
       </c>
       <c r="J21" t="n">
-        <v>28.99267749278586</v>
+        <v>28.95258868134352</v>
       </c>
       <c r="K21" t="n">
-        <v>20.61463990198934</v>
+        <v>20.92525830592528</v>
       </c>
       <c r="L21" t="n">
-        <v>39.52071110616409</v>
+        <v>38.75723432683122</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>10.30647672768685</v>
+        <v>10.43916532649403</v>
       </c>
       <c r="B22" t="n">
-        <v>5.049657770287068</v>
+        <v>4.565720584244977</v>
       </c>
       <c r="C22" t="n">
-        <v>18.09872295242083</v>
+        <v>17.42093981488238</v>
       </c>
       <c r="D22" t="n">
-        <v>10.49985156909842</v>
+        <v>10.58354383657636</v>
       </c>
       <c r="E22" t="n">
-        <v>4.894822543606296</v>
+        <v>4.840637166128408</v>
       </c>
       <c r="F22" t="n">
-        <v>17.58280905190989</v>
+        <v>17.38444665240223</v>
       </c>
       <c r="G22" t="n">
-        <v>10.30558345858491</v>
+        <v>10.35920162102976</v>
       </c>
       <c r="H22" t="n">
-        <v>4.80295965074998</v>
+        <v>4.637055781822436</v>
       </c>
       <c r="I22" t="n">
-        <v>17.70613737773343</v>
+        <v>17.53482940140853</v>
       </c>
       <c r="J22" t="n">
-        <v>10.2541841480391</v>
+        <v>10.33055540242561</v>
       </c>
       <c r="K22" t="n">
-        <v>5.058719746034396</v>
+        <v>4.626516334933063</v>
       </c>
       <c r="L22" t="n">
-        <v>17.83233914993323</v>
+        <v>17.46284687897419</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>31.20996186127529</v>
+        <v>31.11601461374844</v>
       </c>
       <c r="B23" t="n">
-        <v>22.73402463367082</v>
+        <v>22.9117602139514</v>
       </c>
       <c r="C23" t="n">
-        <v>40.82347568445412</v>
+        <v>40.49763635207068</v>
       </c>
       <c r="D23" t="n">
-        <v>30.79894653217638</v>
+        <v>30.83912991625977</v>
       </c>
       <c r="E23" t="n">
-        <v>25.13769359756797</v>
+        <v>24.89447819813685</v>
       </c>
       <c r="F23" t="n">
-        <v>37.74570264343142</v>
+        <v>37.68693672012612</v>
       </c>
       <c r="G23" t="n">
-        <v>30.92870381714185</v>
+        <v>30.94703855231069</v>
       </c>
       <c r="H23" t="n">
-        <v>24.29712520285797</v>
+        <v>24.162533523933</v>
       </c>
       <c r="I23" t="n">
-        <v>37.18944171750794</v>
+        <v>37.20433290995668</v>
       </c>
       <c r="J23" t="n">
-        <v>30.74297814709082</v>
+        <v>30.8168981150567</v>
       </c>
       <c r="K23" t="n">
-        <v>21.28209368037965</v>
+        <v>21.31133963295624</v>
       </c>
       <c r="L23" t="n">
-        <v>40.95466463060296</v>
+        <v>40.94732756591803</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>26.20447208916616</v>
+        <v>26.2925193710536</v>
       </c>
       <c r="B24" t="n">
-        <v>20.24136582368821</v>
+        <v>20.95879912801248</v>
       </c>
       <c r="C24" t="n">
-        <v>32.107734372917</v>
+        <v>32.14962153327492</v>
       </c>
       <c r="D24" t="n">
-        <v>26.2630103874736</v>
+        <v>26.22517464980096</v>
       </c>
       <c r="E24" t="n">
-        <v>21.8164609499015</v>
+        <v>21.59203956696485</v>
       </c>
       <c r="F24" t="n">
-        <v>31.13241996557844</v>
+        <v>30.9747913848815</v>
       </c>
       <c r="G24" t="n">
-        <v>26.05857515692601</v>
+        <v>26.13522160705743</v>
       </c>
       <c r="H24" t="n">
-        <v>21.25829974616589</v>
+        <v>21.21246060603713</v>
       </c>
       <c r="I24" t="n">
-        <v>30.07099520814478</v>
+        <v>29.93371838080056</v>
       </c>
       <c r="J24" t="n">
-        <v>26.13894038537842</v>
+        <v>26.07737841863934</v>
       </c>
       <c r="K24" t="n">
-        <v>18.78718719614275</v>
+        <v>18.99784642991705</v>
       </c>
       <c r="L24" t="n">
-        <v>33.60473074793744</v>
+        <v>33.53665963326222</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>22.68613879475184</v>
+        <v>22.60119358640212</v>
       </c>
       <c r="B25" t="n">
-        <v>17.3582358152829</v>
+        <v>17.45223122437573</v>
       </c>
       <c r="C25" t="n">
-        <v>27.51493812309986</v>
+        <v>27.30007965923869</v>
       </c>
       <c r="D25" t="n">
-        <v>22.54406263818985</v>
+        <v>22.45967304632756</v>
       </c>
       <c r="E25" t="n">
-        <v>18.81887717168633</v>
+        <v>18.84359093206232</v>
       </c>
       <c r="F25" t="n">
-        <v>26.25412671903019</v>
+        <v>26.19152920825143</v>
       </c>
       <c r="G25" t="n">
-        <v>22.65168393004853</v>
+        <v>22.55076190101937</v>
       </c>
       <c r="H25" t="n">
-        <v>18.84609756667364</v>
+        <v>19.32564539322744</v>
       </c>
       <c r="I25" t="n">
-        <v>26.31798699139789</v>
+        <v>26.31581103423264</v>
       </c>
       <c r="J25" t="n">
-        <v>22.67631635905811</v>
+        <v>22.44912835452497</v>
       </c>
       <c r="K25" t="n">
-        <v>15.42669445118643</v>
+        <v>15.17888276209916</v>
       </c>
       <c r="L25" t="n">
-        <v>29.84681215690112</v>
+        <v>29.90627942644478</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>28.8263199249561</v>
+        <v>29.00308200330041</v>
       </c>
       <c r="B26" t="n">
-        <v>21.81795924710837</v>
+        <v>22.17867990244707</v>
       </c>
       <c r="C26" t="n">
-        <v>36.06955154610682</v>
+        <v>36.15019038918809</v>
       </c>
       <c r="D26" t="n">
-        <v>29.26744339243121</v>
+        <v>29.35969974564371</v>
       </c>
       <c r="E26" t="n">
-        <v>23.97811597016672</v>
+        <v>24.61353366572067</v>
       </c>
       <c r="F26" t="n">
-        <v>34.45769285942167</v>
+        <v>34.65235285458144</v>
       </c>
       <c r="G26" t="n">
-        <v>28.82988452325471</v>
+        <v>28.84964956208253</v>
       </c>
       <c r="H26" t="n">
-        <v>23.44213150225234</v>
+        <v>23.63105309797373</v>
       </c>
       <c r="I26" t="n">
-        <v>33.97588524203064</v>
+        <v>34.00978052388639</v>
       </c>
       <c r="J26" t="n">
-        <v>29.15411414895332</v>
+        <v>28.92758010020254</v>
       </c>
       <c r="K26" t="n">
-        <v>21.40195339351171</v>
+        <v>21.64444561573419</v>
       </c>
       <c r="L26" t="n">
-        <v>39.86155038736116</v>
+        <v>39.35094089400592</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>12.9754415622018</v>
+        <v>12.99524285952806</v>
       </c>
       <c r="B27" t="n">
-        <v>6.985889423438118</v>
+        <v>6.946407922645411</v>
       </c>
       <c r="C27" t="n">
-        <v>21.41876816115132</v>
+        <v>21.35693538511</v>
       </c>
       <c r="D27" t="n">
-        <v>13.01068911829519</v>
+        <v>13.00069248335608</v>
       </c>
       <c r="E27" t="n">
-        <v>6.665289271928995</v>
+        <v>6.660679363264129</v>
       </c>
       <c r="F27" t="n">
-        <v>21.01876343699557</v>
+        <v>21.06075782708708</v>
       </c>
       <c r="G27" t="n">
-        <v>12.95905815553827</v>
+        <v>12.93685311397106</v>
       </c>
       <c r="H27" t="n">
-        <v>7.038495852067354</v>
+        <v>7.011617372933697</v>
       </c>
       <c r="I27" t="n">
-        <v>21.11078723397004</v>
+        <v>20.9992655972131</v>
       </c>
       <c r="J27" t="n">
-        <v>12.83145544264361</v>
+        <v>12.85870090613756</v>
       </c>
       <c r="K27" t="n">
-        <v>6.514334774513551</v>
+        <v>6.433626823070651</v>
       </c>
       <c r="L27" t="n">
-        <v>22.3100886232868</v>
+        <v>22.20859496241955</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>20.39147380675642</v>
+        <v>20.34945082240862</v>
       </c>
       <c r="B28" t="n">
-        <v>16.32124753846436</v>
+        <v>16.22807739603097</v>
       </c>
       <c r="C28" t="n">
-        <v>24.49767104115752</v>
+        <v>24.21973978423781</v>
       </c>
       <c r="D28" t="n">
-        <v>20.41782583189504</v>
+        <v>20.39540672253426</v>
       </c>
       <c r="E28" t="n">
-        <v>16.59398997056512</v>
+        <v>16.62416845775601</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28762248707885</v>
+        <v>24.30745427422584</v>
       </c>
       <c r="G28" t="n">
-        <v>20.2427089337753</v>
+        <v>20.20476728757812</v>
       </c>
       <c r="H28" t="n">
-        <v>16.86609312149136</v>
+        <v>16.68847565540579</v>
       </c>
       <c r="I28" t="n">
-        <v>23.61545740796511</v>
+        <v>23.46419242147078</v>
       </c>
       <c r="J28" t="n">
-        <v>20.18455937486828</v>
+        <v>20.16070946822425</v>
       </c>
       <c r="K28" t="n">
-        <v>15.73770839019601</v>
+        <v>15.43100717831082</v>
       </c>
       <c r="L28" t="n">
-        <v>25.87329390211185</v>
+        <v>25.56749353153693</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>32.6627030607408</v>
+        <v>32.43060669756608</v>
       </c>
       <c r="B29" t="n">
-        <v>23.4369851648563</v>
+        <v>22.1933941012677</v>
       </c>
       <c r="C29" t="n">
-        <v>41.33901490688676</v>
+        <v>41.25537078691887</v>
       </c>
       <c r="D29" t="n">
-        <v>33.03795484533825</v>
+        <v>33.07559574285698</v>
       </c>
       <c r="E29" t="n">
-        <v>26.0157923357405</v>
+        <v>25.53762836946966</v>
       </c>
       <c r="F29" t="n">
-        <v>39.82313244295422</v>
+        <v>39.83164123533732</v>
       </c>
       <c r="G29" t="n">
-        <v>32.61033434506181</v>
+        <v>32.5957330544331</v>
       </c>
       <c r="H29" t="n">
-        <v>26.28914110760315</v>
+        <v>25.55040672984458</v>
       </c>
       <c r="I29" t="n">
-        <v>39.52211983781923</v>
+        <v>39.40070311479593</v>
       </c>
       <c r="J29" t="n">
-        <v>32.49456755240747</v>
+        <v>32.55682565961722</v>
       </c>
       <c r="K29" t="n">
-        <v>22.58628326630149</v>
+        <v>22.60844444467213</v>
       </c>
       <c r="L29" t="n">
-        <v>46.1423392899307</v>
+        <v>46.35773794587023</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>25.62887266012609</v>
+        <v>25.61884605313844</v>
       </c>
       <c r="B30" t="n">
-        <v>20.85172894443868</v>
+        <v>20.92831785657522</v>
       </c>
       <c r="C30" t="n">
-        <v>31.15215665470944</v>
+        <v>31.19573479154734</v>
       </c>
       <c r="D30" t="n">
-        <v>25.66489625490405</v>
+        <v>25.64145274029916</v>
       </c>
       <c r="E30" t="n">
-        <v>21.63271233971946</v>
+        <v>21.68421919755367</v>
       </c>
       <c r="F30" t="n">
-        <v>30.10229272077852</v>
+        <v>30.12663439703477</v>
       </c>
       <c r="G30" t="n">
-        <v>25.53194481520048</v>
+        <v>25.50739117962885</v>
       </c>
       <c r="H30" t="n">
-        <v>21.77089411404911</v>
+        <v>21.58851508969947</v>
       </c>
       <c r="I30" t="n">
-        <v>30.33557060644192</v>
+        <v>30.31352674972676</v>
       </c>
       <c r="J30" t="n">
-        <v>25.65001384701597</v>
+        <v>25.66894733054349</v>
       </c>
       <c r="K30" t="n">
-        <v>20.0710410280104</v>
+        <v>19.34254220281658</v>
       </c>
       <c r="L30" t="n">
-        <v>32.33762268282225</v>
+        <v>32.38628501414058</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>14.19580122215669</v>
+        <v>14.20021856079826</v>
       </c>
       <c r="B31" t="n">
-        <v>9.550302759300948</v>
+        <v>9.237803121829215</v>
       </c>
       <c r="C31" t="n">
-        <v>19.74687869875181</v>
+        <v>20.08211249979659</v>
       </c>
       <c r="D31" t="n">
-        <v>14.42067685375902</v>
+        <v>14.35832066200481</v>
       </c>
       <c r="E31" t="n">
-        <v>9.035462203730585</v>
+        <v>9.204214765516262</v>
       </c>
       <c r="F31" t="n">
-        <v>19.24742826158384</v>
+        <v>19.50527358812673</v>
       </c>
       <c r="G31" t="n">
-        <v>14.29465792347669</v>
+        <v>14.31549853282046</v>
       </c>
       <c r="H31" t="n">
-        <v>9.328725128172112</v>
+        <v>9.18531632453127</v>
       </c>
       <c r="I31" t="n">
-        <v>19.92696156871914</v>
+        <v>19.5204558419492</v>
       </c>
       <c r="J31" t="n">
-        <v>14.24348574592352</v>
+        <v>14.28761808091849</v>
       </c>
       <c r="K31" t="n">
-        <v>8.998479759303708</v>
+        <v>9.377770042837195</v>
       </c>
       <c r="L31" t="n">
-        <v>19.4439927419104</v>
+        <v>19.68756600807144</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>12.12284775625019</v>
+        <v>12.02442764872981</v>
       </c>
       <c r="B32" t="n">
-        <v>7.10902512378914</v>
+        <v>6.798305853489232</v>
       </c>
       <c r="C32" t="n">
-        <v>17.73504295676092</v>
+        <v>17.6127811134265</v>
       </c>
       <c r="D32" t="n">
-        <v>12.12151684306889</v>
+        <v>12.06606875313915</v>
       </c>
       <c r="E32" t="n">
-        <v>7.182388217445123</v>
+        <v>6.94631142002303</v>
       </c>
       <c r="F32" t="n">
-        <v>17.90681339547496</v>
+        <v>18.05657963434498</v>
       </c>
       <c r="G32" t="n">
-        <v>11.92422804556034</v>
+        <v>12.00118440784791</v>
       </c>
       <c r="H32" t="n">
-        <v>7.200769390078094</v>
+        <v>7.108987353551473</v>
       </c>
       <c r="I32" t="n">
-        <v>17.33758999319539</v>
+        <v>17.75506816462569</v>
       </c>
       <c r="J32" t="n">
-        <v>11.87910649796464</v>
+        <v>11.83976544104588</v>
       </c>
       <c r="K32" t="n">
-        <v>6.971439911216527</v>
+        <v>6.877604295361449</v>
       </c>
       <c r="L32" t="n">
-        <v>18.16645663683001</v>
+        <v>18.19602180389242</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>15.05453010406583</v>
+        <v>14.98288169320389</v>
       </c>
       <c r="B33" t="n">
-        <v>9.675142050230191</v>
+        <v>9.751579007712218</v>
       </c>
       <c r="C33" t="n">
-        <v>20.61513202428149</v>
+        <v>20.68044119795895</v>
       </c>
       <c r="D33" t="n">
-        <v>14.87280075066781</v>
+        <v>14.79190498832989</v>
       </c>
       <c r="E33" t="n">
-        <v>9.85182086376774</v>
+        <v>9.922750296568971</v>
       </c>
       <c r="F33" t="n">
-        <v>20.28061183072842</v>
+        <v>20.50102021887847</v>
       </c>
       <c r="G33" t="n">
-        <v>14.87135599451999</v>
+        <v>14.81736668319202</v>
       </c>
       <c r="H33" t="n">
-        <v>9.680440491157505</v>
+        <v>9.695085680144404</v>
       </c>
       <c r="I33" t="n">
-        <v>20.39042200267109</v>
+        <v>20.58594917413011</v>
       </c>
       <c r="J33" t="n">
-        <v>14.85946332955256</v>
+        <v>14.75678848803597</v>
       </c>
       <c r="K33" t="n">
-        <v>9.06579538964291</v>
+        <v>9.272628761603331</v>
       </c>
       <c r="L33" t="n">
-        <v>21.82106238783047</v>
+        <v>21.68418692572979</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>23.30192317976482</v>
+        <v>23.32336700876622</v>
       </c>
       <c r="B34" t="n">
-        <v>18.29102249100733</v>
+        <v>18.2390384770319</v>
       </c>
       <c r="C34" t="n">
-        <v>29.02611544013832</v>
+        <v>29.06799409650466</v>
       </c>
       <c r="D34" t="n">
-        <v>23.2577710379332</v>
+        <v>23.26799743037944</v>
       </c>
       <c r="E34" t="n">
-        <v>18.63606057139503</v>
+        <v>18.61371192527455</v>
       </c>
       <c r="F34" t="n">
-        <v>28.90065294559887</v>
+        <v>28.95058543467742</v>
       </c>
       <c r="G34" t="n">
-        <v>23.27598553534948</v>
+        <v>23.27122856111565</v>
       </c>
       <c r="H34" t="n">
-        <v>18.23270873802067</v>
+        <v>18.28988197598803</v>
       </c>
       <c r="I34" t="n">
-        <v>28.47146551972417</v>
+        <v>28.54540092292928</v>
       </c>
       <c r="J34" t="n">
-        <v>23.26135328603798</v>
+        <v>23.30271550970126</v>
       </c>
       <c r="K34" t="n">
-        <v>17.36379020053579</v>
+        <v>17.63555917692134</v>
       </c>
       <c r="L34" t="n">
-        <v>30.31827920991077</v>
+        <v>30.10144562374744</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>28.07616738853309</v>
+        <v>28.05118656303562</v>
       </c>
       <c r="B35" t="n">
-        <v>22.28553672126981</v>
+        <v>22.71190563533191</v>
       </c>
       <c r="C35" t="n">
-        <v>34.19862599644099</v>
+        <v>33.93287302532318</v>
       </c>
       <c r="D35" t="n">
-        <v>27.97862107344294</v>
+        <v>27.96541438287638</v>
       </c>
       <c r="E35" t="n">
-        <v>23.40198863663737</v>
+        <v>23.247850494481</v>
       </c>
       <c r="F35" t="n">
-        <v>32.92293449525201</v>
+        <v>32.80177982525192</v>
       </c>
       <c r="G35" t="n">
-        <v>27.8750236565542</v>
+        <v>27.94584188518509</v>
       </c>
       <c r="H35" t="n">
-        <v>23.21455830478551</v>
+        <v>23.20254591706698</v>
       </c>
       <c r="I35" t="n">
-        <v>32.58924278015387</v>
+        <v>32.54514051818651</v>
       </c>
       <c r="J35" t="n">
-        <v>27.80250812505811</v>
+        <v>27.82050196842548</v>
       </c>
       <c r="K35" t="n">
-        <v>20.5531300702114</v>
+        <v>20.3761355397532</v>
       </c>
       <c r="L35" t="n">
-        <v>35.07080795697777</v>
+        <v>35.3350394005349</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>19.31950684835524</v>
+        <v>19.27873999510089</v>
       </c>
       <c r="B36" t="n">
-        <v>15.41396579983745</v>
+        <v>15.3538790489554</v>
       </c>
       <c r="C36" t="n">
-        <v>23.00127124341834</v>
+        <v>22.89312320344273</v>
       </c>
       <c r="D36" t="n">
-        <v>19.27632827077181</v>
+        <v>19.23432411328857</v>
       </c>
       <c r="E36" t="n">
-        <v>15.98916386666427</v>
+        <v>16.0841850867907</v>
       </c>
       <c r="F36" t="n">
-        <v>22.59217618276112</v>
+        <v>22.6260987514339</v>
       </c>
       <c r="G36" t="n">
-        <v>19.24283850550012</v>
+        <v>19.18116763709214</v>
       </c>
       <c r="H36" t="n">
-        <v>16.30579139735939</v>
+        <v>16.2538790677462</v>
       </c>
       <c r="I36" t="n">
-        <v>22.55689440266203</v>
+        <v>22.60765806948545</v>
       </c>
       <c r="J36" t="n">
-        <v>19.25326148381148</v>
+        <v>19.18985287666042</v>
       </c>
       <c r="K36" t="n">
-        <v>15.04589579032678</v>
+        <v>14.71220217525392</v>
       </c>
       <c r="L36" t="n">
-        <v>24.58320196005851</v>
+        <v>24.72593277154352</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>31.23680532258995</v>
+        <v>31.21510398368797</v>
       </c>
       <c r="B37" t="n">
-        <v>23.33906411457922</v>
+        <v>23.76245671082797</v>
       </c>
       <c r="C37" t="n">
-        <v>39.7579263338806</v>
+        <v>39.79284367913311</v>
       </c>
       <c r="D37" t="n">
-        <v>30.74950332689997</v>
+        <v>30.77297748998149</v>
       </c>
       <c r="E37" t="n">
-        <v>25.16156709702135</v>
+        <v>25.47018080302991</v>
       </c>
       <c r="F37" t="n">
-        <v>36.73943408947461</v>
+        <v>36.77093194978015</v>
       </c>
       <c r="G37" t="n">
-        <v>30.85983980725422</v>
+        <v>30.8755407488646</v>
       </c>
       <c r="H37" t="n">
-        <v>24.80589936826084</v>
+        <v>24.90182455635845</v>
       </c>
       <c r="I37" t="n">
-        <v>36.23544527599682</v>
+        <v>36.36309501865225</v>
       </c>
       <c r="J37" t="n">
-        <v>30.75878536653736</v>
+        <v>30.81383901524069</v>
       </c>
       <c r="K37" t="n">
-        <v>21.12741759512235</v>
+        <v>21.40529097792761</v>
       </c>
       <c r="L37" t="n">
-        <v>40.58341257735989</v>
+        <v>40.51477637020871</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>15.39386357099157</v>
+        <v>15.47870668561635</v>
       </c>
       <c r="B38" t="n">
-        <v>9.520407388953483</v>
+        <v>10.15630867048588</v>
       </c>
       <c r="C38" t="n">
-        <v>22.57788646009412</v>
+        <v>22.90920775264387</v>
       </c>
       <c r="D38" t="n">
-        <v>15.12308342016343</v>
+        <v>15.12102979190698</v>
       </c>
       <c r="E38" t="n">
-        <v>9.424931059862908</v>
+        <v>9.915150175744301</v>
       </c>
       <c r="F38" t="n">
-        <v>21.58947876339179</v>
+        <v>21.46432255940534</v>
       </c>
       <c r="G38" t="n">
-        <v>15.1212170010348</v>
+        <v>15.08115711701076</v>
       </c>
       <c r="H38" t="n">
-        <v>9.976955914994326</v>
+        <v>10.22542056734752</v>
       </c>
       <c r="I38" t="n">
-        <v>21.85386770257935</v>
+        <v>21.9405564906501</v>
       </c>
       <c r="J38" t="n">
-        <v>15.12823380618451</v>
+        <v>15.07809435328386</v>
       </c>
       <c r="K38" t="n">
-        <v>9.309594258302196</v>
+        <v>9.767765989877422</v>
       </c>
       <c r="L38" t="n">
-        <v>22.35999633014717</v>
+        <v>22.69044880426711</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>27.59426434288317</v>
+        <v>27.62969703839168</v>
       </c>
       <c r="B39" t="n">
-        <v>22.85815777903512</v>
+        <v>22.47042643989112</v>
       </c>
       <c r="C39" t="n">
-        <v>33.3199863742406</v>
+        <v>33.33335046073919</v>
       </c>
       <c r="D39" t="n">
-        <v>27.37520173948355</v>
+        <v>27.40430200393377</v>
       </c>
       <c r="E39" t="n">
-        <v>23.04020120072957</v>
+        <v>22.88968686830509</v>
       </c>
       <c r="F39" t="n">
-        <v>31.87914318028199</v>
+        <v>31.74665653934783</v>
       </c>
       <c r="G39" t="n">
-        <v>27.3474514517444</v>
+        <v>27.39081965969918</v>
       </c>
       <c r="H39" t="n">
-        <v>22.75547494756861</v>
+        <v>22.42191464223674</v>
       </c>
       <c r="I39" t="n">
-        <v>32.00141892448308</v>
+        <v>31.89899686933632</v>
       </c>
       <c r="J39" t="n">
-        <v>27.42831457690117</v>
+        <v>27.46088458273091</v>
       </c>
       <c r="K39" t="n">
-        <v>21.14836678852089</v>
+        <v>20.77528264345922</v>
       </c>
       <c r="L39" t="n">
-        <v>35.13489785837675</v>
+        <v>35.00264798224804</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>25.04100104286915</v>
+        <v>25.13978177320525</v>
       </c>
       <c r="B40" t="n">
-        <v>18.77054841309131</v>
+        <v>18.37294519898623</v>
       </c>
       <c r="C40" t="n">
-        <v>32.3191492362709</v>
+        <v>32.58513689564091</v>
       </c>
       <c r="D40" t="n">
-        <v>24.79853023432324</v>
+        <v>24.76614073582201</v>
       </c>
       <c r="E40" t="n">
-        <v>20.29889912127605</v>
+        <v>19.9772385588705</v>
       </c>
       <c r="F40" t="n">
-        <v>29.80443679631638</v>
+        <v>29.74682644686926</v>
       </c>
       <c r="G40" t="n">
-        <v>24.91370998643991</v>
+        <v>24.97063941847406</v>
       </c>
       <c r="H40" t="n">
-        <v>20.17418155556179</v>
+        <v>20.31884117502563</v>
       </c>
       <c r="I40" t="n">
-        <v>30.26209818202064</v>
+        <v>30.28551423089321</v>
       </c>
       <c r="J40" t="n">
-        <v>24.87526967344512</v>
+        <v>25.00502644795053</v>
       </c>
       <c r="K40" t="n">
-        <v>16.52330708896097</v>
+        <v>15.94601941706556</v>
       </c>
       <c r="L40" t="n">
-        <v>34.09921966030469</v>
+        <v>33.98242864097681</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>18.20161024530817</v>
+        <v>18.25379696056485</v>
       </c>
       <c r="B41" t="n">
-        <v>14.88895217563353</v>
+        <v>14.82455516936609</v>
       </c>
       <c r="C41" t="n">
-        <v>21.90429848970759</v>
+        <v>21.91229610866167</v>
       </c>
       <c r="D41" t="n">
-        <v>17.9762648093111</v>
+        <v>18.01019939613991</v>
       </c>
       <c r="E41" t="n">
-        <v>15.08945701715721</v>
+        <v>15.10321019505389</v>
       </c>
       <c r="F41" t="n">
-        <v>20.70822531681371</v>
+        <v>20.70120880593804</v>
       </c>
       <c r="G41" t="n">
-        <v>18.12283044407352</v>
+        <v>18.14286268822413</v>
       </c>
       <c r="H41" t="n">
-        <v>15.35517697780904</v>
+        <v>15.37695718425141</v>
       </c>
       <c r="I41" t="n">
-        <v>21.2997770213669</v>
+        <v>21.33982473462384</v>
       </c>
       <c r="J41" t="n">
-        <v>18.11763507500547</v>
+        <v>18.14852793022828</v>
       </c>
       <c r="K41" t="n">
-        <v>14.50306820503715</v>
+        <v>14.04417933086548</v>
       </c>
       <c r="L41" t="n">
-        <v>22.71396844482571</v>
+        <v>22.67341285096218</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>18.20785164581774</v>
+        <v>18.17139211479304</v>
       </c>
       <c r="B42" t="n">
-        <v>13.22166658598164</v>
+        <v>13.27044633390745</v>
       </c>
       <c r="C42" t="n">
-        <v>23.36345595490935</v>
+        <v>23.3189645463977</v>
       </c>
       <c r="D42" t="n">
-        <v>18.17792950388754</v>
+        <v>18.17680115774325</v>
       </c>
       <c r="E42" t="n">
-        <v>13.17858505813076</v>
+        <v>13.14878201006921</v>
       </c>
       <c r="F42" t="n">
-        <v>23.42967516495789</v>
+        <v>23.37776746454873</v>
       </c>
       <c r="G42" t="n">
-        <v>18.17227084197125</v>
+        <v>18.18622927699193</v>
       </c>
       <c r="H42" t="n">
-        <v>12.82844037151205</v>
+        <v>12.9042886033715</v>
       </c>
       <c r="I42" t="n">
-        <v>23.43400386512234</v>
+        <v>23.30470438251548</v>
       </c>
       <c r="J42" t="n">
-        <v>18.0454685173454</v>
+        <v>18.05048551766586</v>
       </c>
       <c r="K42" t="n">
-        <v>12.22475379160481</v>
+        <v>12.45671829685177</v>
       </c>
       <c r="L42" t="n">
-        <v>24.22837072618994</v>
+        <v>24.39804283918022</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>25.62064911477803</v>
+        <v>25.56574287801159</v>
       </c>
       <c r="B43" t="n">
-        <v>20.84616747563643</v>
+        <v>20.87713502235771</v>
       </c>
       <c r="C43" t="n">
-        <v>31.14787601660266</v>
+        <v>31.11721461827999</v>
       </c>
       <c r="D43" t="n">
-        <v>25.65454247888469</v>
+        <v>25.59190879840703</v>
       </c>
       <c r="E43" t="n">
-        <v>21.62333569826693</v>
+        <v>21.65831299235395</v>
       </c>
       <c r="F43" t="n">
-        <v>30.10229272077852</v>
+        <v>30.08291725084787</v>
       </c>
       <c r="G43" t="n">
-        <v>25.5255675003644</v>
+        <v>25.45701406449509</v>
       </c>
       <c r="H43" t="n">
-        <v>21.75917209451062</v>
+        <v>21.55562422084639</v>
       </c>
       <c r="I43" t="n">
-        <v>30.33557060644192</v>
+        <v>30.24444915817769</v>
       </c>
       <c r="J43" t="n">
-        <v>25.63843261537941</v>
+        <v>25.61827563728592</v>
       </c>
       <c r="K43" t="n">
-        <v>20.10291207028857</v>
+        <v>19.30229835872376</v>
       </c>
       <c r="L43" t="n">
-        <v>32.32787996496945</v>
+        <v>32.28594714129299</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>15.98655348152317</v>
+        <v>15.97984760014063</v>
       </c>
       <c r="B44" t="n">
-        <v>12.32275532229027</v>
+        <v>12.30344929721208</v>
       </c>
       <c r="C44" t="n">
-        <v>19.44156593589689</v>
+        <v>19.34517449923557</v>
       </c>
       <c r="D44" t="n">
-        <v>15.78316426077183</v>
+        <v>15.80603639507733</v>
       </c>
       <c r="E44" t="n">
-        <v>12.77342423675233</v>
+        <v>12.78969308824441</v>
       </c>
       <c r="F44" t="n">
-        <v>18.93702447201746</v>
+        <v>18.8987901791203</v>
       </c>
       <c r="G44" t="n">
-        <v>15.80847808616443</v>
+        <v>15.80900107682814</v>
       </c>
       <c r="H44" t="n">
-        <v>12.66927834422494</v>
+        <v>12.68324470116922</v>
       </c>
       <c r="I44" t="n">
-        <v>20.21920969886869</v>
+        <v>19.59798452145093</v>
       </c>
       <c r="J44" t="n">
-        <v>15.87102284682028</v>
+        <v>15.85625907052621</v>
       </c>
       <c r="K44" t="n">
-        <v>12.34855583466491</v>
+        <v>12.37542097362652</v>
       </c>
       <c r="L44" t="n">
-        <v>19.95138308095491</v>
+        <v>19.80462340914912</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>19.04322713665324</v>
+        <v>19.04926700975576</v>
       </c>
       <c r="B45" t="n">
-        <v>13.86513921646492</v>
+        <v>13.50552458207592</v>
       </c>
       <c r="C45" t="n">
-        <v>25.0915356842957</v>
+        <v>25.25497461653746</v>
       </c>
       <c r="D45" t="n">
-        <v>18.82920300908235</v>
+        <v>18.90677386968578</v>
       </c>
       <c r="E45" t="n">
-        <v>13.76751263825795</v>
+        <v>13.68991191860019</v>
       </c>
       <c r="F45" t="n">
-        <v>24.68256202185744</v>
+        <v>24.73472524418808</v>
       </c>
       <c r="G45" t="n">
-        <v>18.90311493737383</v>
+        <v>18.89735564600378</v>
       </c>
       <c r="H45" t="n">
-        <v>13.86383089855392</v>
+        <v>13.506816870014</v>
       </c>
       <c r="I45" t="n">
-        <v>24.60404864503019</v>
+        <v>24.51689074079584</v>
       </c>
       <c r="J45" t="n">
-        <v>19.09570130288871</v>
+        <v>19.13138336634675</v>
       </c>
       <c r="K45" t="n">
-        <v>13.67146940701865</v>
+        <v>13.56160053097117</v>
       </c>
       <c r="L45" t="n">
-        <v>27.00502651687606</v>
+        <v>26.87636363749924</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>13.95575560601092</v>
+        <v>13.96229165195881</v>
       </c>
       <c r="B46" t="n">
-        <v>8.909140800577346</v>
+        <v>10.22175872360899</v>
       </c>
       <c r="C46" t="n">
-        <v>18.68421189253089</v>
+        <v>19.07489797458985</v>
       </c>
       <c r="D46" t="n">
-        <v>14.04583173672532</v>
+        <v>14.01618964205012</v>
       </c>
       <c r="E46" t="n">
-        <v>9.437300872720426</v>
+        <v>10.02034041091307</v>
       </c>
       <c r="F46" t="n">
-        <v>18.47391768938391</v>
+        <v>18.56075370086266</v>
       </c>
       <c r="G46" t="n">
-        <v>14.0348210751767</v>
+        <v>14.0129271419732</v>
       </c>
       <c r="H46" t="n">
-        <v>9.792953928355665</v>
+        <v>9.971356571096818</v>
       </c>
       <c r="I46" t="n">
-        <v>17.99499020139016</v>
+        <v>18.06651060501671</v>
       </c>
       <c r="J46" t="n">
-        <v>13.83102783412867</v>
+        <v>13.79539807805935</v>
       </c>
       <c r="K46" t="n">
-        <v>9.108703224443685</v>
+        <v>9.812658421792468</v>
       </c>
       <c r="L46" t="n">
-        <v>19.3203820483878</v>
+        <v>19.37678781879833</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>10.83420811471587</v>
+        <v>11.00471437210043</v>
       </c>
       <c r="B47" t="n">
-        <v>5.010885681017723</v>
+        <v>5.173951408813548</v>
       </c>
       <c r="C47" t="n">
-        <v>18.68093782686892</v>
+        <v>18.57223118377771</v>
       </c>
       <c r="D47" t="n">
-        <v>10.64624854094796</v>
+        <v>10.72084542517277</v>
       </c>
       <c r="E47" t="n">
-        <v>4.870172724360794</v>
+        <v>5.00268834722054</v>
       </c>
       <c r="F47" t="n">
-        <v>18.65398793589169</v>
+        <v>18.49696686881306</v>
       </c>
       <c r="G47" t="n">
-        <v>10.8041143980327</v>
+        <v>10.76279962730293</v>
       </c>
       <c r="H47" t="n">
-        <v>4.960453251513119</v>
+        <v>4.820287676037808</v>
       </c>
       <c r="I47" t="n">
-        <v>17.66538214903937</v>
+        <v>17.63879106991551</v>
       </c>
       <c r="J47" t="n">
-        <v>10.75103543437347</v>
+        <v>10.8539539242852</v>
       </c>
       <c r="K47" t="n">
-        <v>4.71801022826989</v>
+        <v>4.835729262473895</v>
       </c>
       <c r="L47" t="n">
-        <v>18.97712099267324</v>
+        <v>19.98702622533726</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>27.06117178487238</v>
+        <v>27.25957976011939</v>
       </c>
       <c r="B48" t="n">
-        <v>21.25119139511819</v>
+        <v>21.51889488449472</v>
       </c>
       <c r="C48" t="n">
-        <v>33.1244923605856</v>
+        <v>33.22056693448399</v>
       </c>
       <c r="D48" t="n">
-        <v>27.10627510230813</v>
+        <v>27.1167580075715</v>
       </c>
       <c r="E48" t="n">
-        <v>22.11568484388109</v>
+        <v>22.27188125894256</v>
       </c>
       <c r="F48" t="n">
-        <v>31.57679019709516</v>
+        <v>31.73544211797255</v>
       </c>
       <c r="G48" t="n">
-        <v>26.89613680831894</v>
+        <v>27.0087684786988</v>
       </c>
       <c r="H48" t="n">
-        <v>22.45702558340079</v>
+        <v>22.19567193328212</v>
       </c>
       <c r="I48" t="n">
-        <v>30.8990160226178</v>
+        <v>31.38345425984961</v>
       </c>
       <c r="J48" t="n">
-        <v>27.04277139685754</v>
+        <v>27.11078697044411</v>
       </c>
       <c r="K48" t="n">
-        <v>19.75405075978523</v>
+        <v>20.11907336159436</v>
       </c>
       <c r="L48" t="n">
-        <v>34.5715998735036</v>
+        <v>34.599834335761</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>22.86529376850036</v>
+        <v>22.99197174525039</v>
       </c>
       <c r="B49" t="n">
-        <v>17.22488674090715</v>
+        <v>17.40653249105836</v>
       </c>
       <c r="C49" t="n">
-        <v>29.87989315372546</v>
+        <v>29.60621081505887</v>
       </c>
       <c r="D49" t="n">
-        <v>22.69847079782437</v>
+        <v>22.82581052565751</v>
       </c>
       <c r="E49" t="n">
-        <v>18.77571052441601</v>
+        <v>18.42840355926134</v>
       </c>
       <c r="F49" t="n">
-        <v>28.29496189698932</v>
+        <v>27.43938542486412</v>
       </c>
       <c r="G49" t="n">
-        <v>22.80228507479371</v>
+        <v>23.04152391993347</v>
       </c>
       <c r="H49" t="n">
-        <v>18.83997308109335</v>
+        <v>18.78432472216578</v>
       </c>
       <c r="I49" t="n">
-        <v>27.70247286291486</v>
+        <v>27.79259729777536</v>
       </c>
       <c r="J49" t="n">
-        <v>22.5979946889874</v>
+        <v>22.87224457962745</v>
       </c>
       <c r="K49" t="n">
-        <v>14.83046564471011</v>
+        <v>15.55230731307764</v>
       </c>
       <c r="L49" t="n">
-        <v>31.3443542463889</v>
+        <v>31.42851002246861</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>31.27820259341136</v>
+        <v>31.2153942590628</v>
       </c>
       <c r="B50" t="n">
-        <v>23.37371021069986</v>
+        <v>23.98623163509574</v>
       </c>
       <c r="C50" t="n">
-        <v>39.69455576662519</v>
+        <v>39.51125952270177</v>
       </c>
       <c r="D50" t="n">
-        <v>30.76474520605255</v>
+        <v>30.79289859899468</v>
       </c>
       <c r="E50" t="n">
-        <v>25.22808518813587</v>
+        <v>25.67392551712236</v>
       </c>
       <c r="F50" t="n">
-        <v>36.70997945565364</v>
+        <v>36.67045672411636</v>
       </c>
       <c r="G50" t="n">
-        <v>30.88413905449957</v>
+        <v>30.86955261477159</v>
       </c>
       <c r="H50" t="n">
-        <v>24.80618349185419</v>
+        <v>25.06848926810737</v>
       </c>
       <c r="I50" t="n">
-        <v>36.32216492213798</v>
+        <v>36.32170226248257</v>
       </c>
       <c r="J50" t="n">
-        <v>30.79446243319086</v>
+        <v>30.83605118349933</v>
       </c>
       <c r="K50" t="n">
-        <v>20.99438229989558</v>
+        <v>21.21791335819151</v>
       </c>
       <c r="L50" t="n">
-        <v>39.86957713450531</v>
+        <v>40.59842191336671</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>20.41334112868302</v>
+        <v>20.41160163791874</v>
       </c>
       <c r="B51" t="n">
-        <v>14.73161111311995</v>
+        <v>14.73463636385903</v>
       </c>
       <c r="C51" t="n">
-        <v>26.52771591005889</v>
+        <v>26.41582884833275</v>
       </c>
       <c r="D51" t="n">
-        <v>20.42763660676753</v>
+        <v>20.55398290715876</v>
       </c>
       <c r="E51" t="n">
-        <v>15.89498775224329</v>
+        <v>15.98458531402562</v>
       </c>
       <c r="F51" t="n">
-        <v>25.44518649486281</v>
+        <v>25.77214935108423</v>
       </c>
       <c r="G51" t="n">
-        <v>20.6215438141091</v>
+        <v>20.6788090549645</v>
       </c>
       <c r="H51" t="n">
-        <v>15.85184816281195</v>
+        <v>15.93126636019338</v>
       </c>
       <c r="I51" t="n">
-        <v>26.08900426347298</v>
+        <v>26.52091350628812</v>
       </c>
       <c r="J51" t="n">
-        <v>20.19665519407964</v>
+        <v>20.24200078188425</v>
       </c>
       <c r="K51" t="n">
-        <v>13.09697256346379</v>
+        <v>12.5946706912319</v>
       </c>
       <c r="L51" t="n">
-        <v>28.66989245637108</v>
+        <v>28.96816943298703</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>13.55064454444528</v>
+        <v>13.55545333962036</v>
       </c>
       <c r="B52" t="n">
-        <v>9.274329393699764</v>
+        <v>9.393672280765207</v>
       </c>
       <c r="C52" t="n">
-        <v>17.94790766013142</v>
+        <v>17.82464004373456</v>
       </c>
       <c r="D52" t="n">
-        <v>13.55951999887348</v>
+        <v>13.56085770890576</v>
       </c>
       <c r="E52" t="n">
-        <v>9.61639540979796</v>
+        <v>9.81473212172936</v>
       </c>
       <c r="F52" t="n">
-        <v>17.4005468505142</v>
+        <v>17.54005807562255</v>
       </c>
       <c r="G52" t="n">
-        <v>13.54573174622642</v>
+        <v>13.55047592951973</v>
       </c>
       <c r="H52" t="n">
-        <v>9.366554926770107</v>
+        <v>9.526003062170052</v>
       </c>
       <c r="I52" t="n">
-        <v>18.09834361361829</v>
+        <v>17.67134920058813</v>
       </c>
       <c r="J52" t="n">
-        <v>13.55505964894011</v>
+        <v>13.55492487841896</v>
       </c>
       <c r="K52" t="n">
-        <v>9.17980688652348</v>
+        <v>9.389041671570778</v>
       </c>
       <c r="L52" t="n">
-        <v>18.15013359979239</v>
+        <v>18.1555573024808</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>27.66837995601191</v>
+        <v>27.72957167078894</v>
       </c>
       <c r="B53" t="n">
-        <v>23.21121193913497</v>
+        <v>22.63867507141416</v>
       </c>
       <c r="C53" t="n">
-        <v>33.11482281375132</v>
+        <v>33.41376041550708</v>
       </c>
       <c r="D53" t="n">
-        <v>27.49080916329417</v>
+        <v>27.54955464750596</v>
       </c>
       <c r="E53" t="n">
-        <v>22.91765428739317</v>
+        <v>22.79714614131027</v>
       </c>
       <c r="F53" t="n">
-        <v>32.07246679860666</v>
+        <v>32.10777629820333</v>
       </c>
       <c r="G53" t="n">
-        <v>27.4025423382121</v>
+        <v>27.4727617012264</v>
       </c>
       <c r="H53" t="n">
-        <v>23.31559419037099</v>
+        <v>23.01016475690373</v>
       </c>
       <c r="I53" t="n">
-        <v>32.44778209271936</v>
+        <v>32.20035862440751</v>
       </c>
       <c r="J53" t="n">
-        <v>27.61912697978751</v>
+        <v>27.64075433063896</v>
       </c>
       <c r="K53" t="n">
-        <v>22.32631957819466</v>
+        <v>21.0261336976729</v>
       </c>
       <c r="L53" t="n">
-        <v>34.9137403449322</v>
+        <v>34.8894565901633</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>28.88249032436406</v>
+        <v>28.9724612050956</v>
       </c>
       <c r="B54" t="n">
-        <v>21.87949191581011</v>
+        <v>21.94856740355338</v>
       </c>
       <c r="C54" t="n">
-        <v>37.99478780206971</v>
+        <v>38.03946348027534</v>
       </c>
       <c r="D54" t="n">
-        <v>28.99855517574677</v>
+        <v>29.02819160186722</v>
       </c>
       <c r="E54" t="n">
-        <v>23.42062882041194</v>
+        <v>23.35895602410338</v>
       </c>
       <c r="F54" t="n">
-        <v>35.5484144426945</v>
+        <v>35.8746516918341</v>
       </c>
       <c r="G54" t="n">
-        <v>28.7982192894844</v>
+        <v>28.80948226289312</v>
       </c>
       <c r="H54" t="n">
-        <v>22.98312555085944</v>
+        <v>22.70031756125741</v>
       </c>
       <c r="I54" t="n">
-        <v>34.82121523372819</v>
+        <v>34.81993799317908</v>
       </c>
       <c r="J54" t="n">
-        <v>28.99407515515302</v>
+        <v>29.03812587935732</v>
       </c>
       <c r="K54" t="n">
-        <v>20.31577029932199</v>
+        <v>19.99573165409628</v>
       </c>
       <c r="L54" t="n">
-        <v>40.31181693798988</v>
+        <v>40.38818640758329</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>28.93793483666256</v>
+        <v>28.94281209154021</v>
       </c>
       <c r="B55" t="n">
-        <v>22.15412641929207</v>
+        <v>21.88435530954875</v>
       </c>
       <c r="C55" t="n">
-        <v>36.52628798369908</v>
+        <v>36.66656780623596</v>
       </c>
       <c r="D55" t="n">
-        <v>29.00521318097555</v>
+        <v>28.96557738648601</v>
       </c>
       <c r="E55" t="n">
-        <v>23.54154488645036</v>
+        <v>24.41620878337423</v>
       </c>
       <c r="F55" t="n">
-        <v>34.51546431745504</v>
+        <v>34.04841581692895</v>
       </c>
       <c r="G55" t="n">
-        <v>28.83532267856761</v>
+        <v>28.92880004748634</v>
       </c>
       <c r="H55" t="n">
-        <v>23.22161383137446</v>
+        <v>23.62553735062947</v>
       </c>
       <c r="I55" t="n">
-        <v>33.97304958300782</v>
+        <v>33.86845594644188</v>
       </c>
       <c r="J55" t="n">
-        <v>29.03966608858522</v>
+        <v>29.44047407055172</v>
       </c>
       <c r="K55" t="n">
-        <v>20.50642449192137</v>
+        <v>21.85162798379878</v>
       </c>
       <c r="L55" t="n">
-        <v>39.67133612744657</v>
+        <v>39.55500595354356</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>14.29359399637084</v>
+        <v>14.33016211105413</v>
       </c>
       <c r="B56" t="n">
-        <v>9.60501360003142</v>
+        <v>9.536824321436574</v>
       </c>
       <c r="C56" t="n">
-        <v>19.69996906753504</v>
+        <v>19.48081213628755</v>
       </c>
       <c r="D56" t="n">
-        <v>14.34507681341111</v>
+        <v>14.35114973134637</v>
       </c>
       <c r="E56" t="n">
-        <v>9.285282894543212</v>
+        <v>8.89020842464388</v>
       </c>
       <c r="F56" t="n">
-        <v>19.54888960258845</v>
+        <v>19.82517652710641</v>
       </c>
       <c r="G56" t="n">
-        <v>14.07479019020188</v>
+        <v>14.09073143511734</v>
       </c>
       <c r="H56" t="n">
-        <v>9.303649758538812</v>
+        <v>9.274773020755259</v>
       </c>
       <c r="I56" t="n">
-        <v>19.87236736899391</v>
+        <v>19.68977915300956</v>
       </c>
       <c r="J56" t="n">
-        <v>14.01412900559301</v>
+        <v>13.99998931652312</v>
       </c>
       <c r="K56" t="n">
-        <v>8.983742168473496</v>
+        <v>8.947639839209973</v>
       </c>
       <c r="L56" t="n">
-        <v>19.96615727739145</v>
+        <v>20.04260072549164</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>11.94005744474757</v>
+        <v>11.93847638573154</v>
       </c>
       <c r="B57" t="n">
-        <v>6.703424142258073</v>
+        <v>6.643301925250504</v>
       </c>
       <c r="C57" t="n">
-        <v>17.81235420082321</v>
+        <v>18.00405828871694</v>
       </c>
       <c r="D57" t="n">
-        <v>12.07391721041079</v>
+        <v>12.01729093583192</v>
       </c>
       <c r="E57" t="n">
-        <v>6.807979727924194</v>
+        <v>6.653318914435159</v>
       </c>
       <c r="F57" t="n">
-        <v>17.87896742699484</v>
+        <v>18.05113057827376</v>
       </c>
       <c r="G57" t="n">
-        <v>11.84656490024091</v>
+        <v>11.94667151965228</v>
       </c>
       <c r="H57" t="n">
-        <v>6.893701283502936</v>
+        <v>6.886689051238778</v>
       </c>
       <c r="I57" t="n">
-        <v>17.27537684802034</v>
+        <v>17.83795709393385</v>
       </c>
       <c r="J57" t="n">
-        <v>11.73771195922248</v>
+        <v>11.71933274923422</v>
       </c>
       <c r="K57" t="n">
-        <v>6.662580045147886</v>
+        <v>6.586400040121545</v>
       </c>
       <c r="L57" t="n">
-        <v>18.09368969082091</v>
+        <v>18.17193856944595</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>31.20303239528607</v>
+        <v>31.08785620685151</v>
       </c>
       <c r="B58" t="n">
-        <v>23.3088795648192</v>
+        <v>23.46167323977957</v>
       </c>
       <c r="C58" t="n">
-        <v>39.7034352673238</v>
+        <v>39.79499648423719</v>
       </c>
       <c r="D58" t="n">
-        <v>30.7515967334001</v>
+        <v>30.80081620022753</v>
       </c>
       <c r="E58" t="n">
-        <v>25.20880619822542</v>
+        <v>25.30429492611728</v>
       </c>
       <c r="F58" t="n">
-        <v>36.53664849784473</v>
+        <v>36.92951196998657</v>
       </c>
       <c r="G58" t="n">
-        <v>30.85784433787073</v>
+        <v>30.8620738784963</v>
       </c>
       <c r="H58" t="n">
-        <v>24.83497959044839</v>
+        <v>25.03829293643273</v>
       </c>
       <c r="I58" t="n">
-        <v>36.20249909874612</v>
+        <v>36.52148953641304</v>
       </c>
       <c r="J58" t="n">
-        <v>30.71060954913685</v>
+        <v>30.69108571464552</v>
       </c>
       <c r="K58" t="n">
-        <v>21.54711270660572</v>
+        <v>21.83070114565574</v>
       </c>
       <c r="L58" t="n">
-        <v>40.44822814757315</v>
+        <v>40.67116870905142</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>17.11562409212418</v>
+        <v>17.10988431188556</v>
       </c>
       <c r="B59" t="n">
-        <v>12.95589974193121</v>
+        <v>13.09476791638621</v>
       </c>
       <c r="C59" t="n">
-        <v>21.5560634048929</v>
+        <v>21.39879036732228</v>
       </c>
       <c r="D59" t="n">
-        <v>17.20246229846897</v>
+        <v>17.17285582259268</v>
       </c>
       <c r="E59" t="n">
-        <v>12.88657490332941</v>
+        <v>12.59209843872469</v>
       </c>
       <c r="F59" t="n">
-        <v>20.98103690693983</v>
+        <v>20.88940659155883</v>
       </c>
       <c r="G59" t="n">
-        <v>17.19034311490704</v>
+        <v>17.14177044025653</v>
       </c>
       <c r="H59" t="n">
-        <v>13.14118135958215</v>
+        <v>12.77051085817983</v>
       </c>
       <c r="I59" t="n">
-        <v>21.59790597100677</v>
+        <v>21.40632846576257</v>
       </c>
       <c r="J59" t="n">
-        <v>17.11632338835598</v>
+        <v>17.10122423610905</v>
       </c>
       <c r="K59" t="n">
-        <v>12.42807613435089</v>
+        <v>12.47066675612878</v>
       </c>
       <c r="L59" t="n">
-        <v>22.5586250271104</v>
+        <v>22.49820505179925</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>31.28558693401895</v>
+        <v>31.23160628108637</v>
       </c>
       <c r="B60" t="n">
-        <v>22.86202189645489</v>
+        <v>23.19232300476685</v>
       </c>
       <c r="C60" t="n">
-        <v>40.93858162913257</v>
+        <v>40.24461600419843</v>
       </c>
       <c r="D60" t="n">
-        <v>30.81750614129525</v>
+        <v>30.93783577233699</v>
       </c>
       <c r="E60" t="n">
-        <v>25.20597628531336</v>
+        <v>25.27912556866495</v>
       </c>
       <c r="F60" t="n">
-        <v>37.94516822065026</v>
+        <v>37.48323607630249</v>
       </c>
       <c r="G60" t="n">
-        <v>30.96033189015023</v>
+        <v>31.02344528267268</v>
       </c>
       <c r="H60" t="n">
-        <v>24.32822731240996</v>
+        <v>24.33497965737014</v>
       </c>
       <c r="I60" t="n">
-        <v>37.349407695699</v>
+        <v>37.07583372076032</v>
       </c>
       <c r="J60" t="n">
-        <v>30.85000843629658</v>
+        <v>30.98033627672186</v>
       </c>
       <c r="K60" t="n">
-        <v>20.69277559866414</v>
+        <v>21.00404616373124</v>
       </c>
       <c r="L60" t="n">
-        <v>40.28496796806055</v>
+        <v>41.10998756561534</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>15.01407893317751</v>
+        <v>14.90235942288567</v>
       </c>
       <c r="B61" t="n">
-        <v>9.671506521559623</v>
+        <v>9.758506371320143</v>
       </c>
       <c r="C61" t="n">
-        <v>21.43035876149251</v>
+        <v>21.33859983327887</v>
       </c>
       <c r="D61" t="n">
-        <v>14.93502246988436</v>
+        <v>14.90755402026632</v>
       </c>
       <c r="E61" t="n">
-        <v>9.558393552948555</v>
+        <v>9.546727040744704</v>
       </c>
       <c r="F61" t="n">
-        <v>21.2017040924567</v>
+        <v>21.05377880565073</v>
       </c>
       <c r="G61" t="n">
-        <v>14.98232012590772</v>
+        <v>14.92433437406244</v>
       </c>
       <c r="H61" t="n">
-        <v>9.588574128805721</v>
+        <v>9.455327191942095</v>
       </c>
       <c r="I61" t="n">
-        <v>21.43523767198516</v>
+        <v>21.44234354291601</v>
       </c>
       <c r="J61" t="n">
-        <v>14.8587851414055</v>
+        <v>14.81722047569016</v>
       </c>
       <c r="K61" t="n">
-        <v>8.864156093252616</v>
+        <v>8.977310553024745</v>
       </c>
       <c r="L61" t="n">
-        <v>21.81233502318365</v>
+        <v>21.37828020232775</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>18.23050983570121</v>
+        <v>18.25014685734369</v>
       </c>
       <c r="B62" t="n">
-        <v>13.19393371081487</v>
+        <v>13.50470419460213</v>
       </c>
       <c r="C62" t="n">
-        <v>22.84993990994162</v>
+        <v>22.97210713073017</v>
       </c>
       <c r="D62" t="n">
-        <v>17.88495133539031</v>
+        <v>17.93943675078113</v>
       </c>
       <c r="E62" t="n">
-        <v>13.18162123143192</v>
+        <v>13.30705278368002</v>
       </c>
       <c r="F62" t="n">
-        <v>22.18051154108605</v>
+        <v>22.42526522194351</v>
       </c>
       <c r="G62" t="n">
-        <v>18.01742112523058</v>
+        <v>18.02487999141284</v>
       </c>
       <c r="H62" t="n">
-        <v>12.81314287193716</v>
+        <v>13.27254677359395</v>
       </c>
       <c r="I62" t="n">
-        <v>22.25220279278318</v>
+        <v>22.51592006572686</v>
       </c>
       <c r="J62" t="n">
-        <v>18.06539873036501</v>
+        <v>18.11162481863223</v>
       </c>
       <c r="K62" t="n">
-        <v>12.10540470517068</v>
+        <v>12.29604584222595</v>
       </c>
       <c r="L62" t="n">
-        <v>23.68169408150814</v>
+        <v>23.77855100388826</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>15.32259442640167</v>
+        <v>15.17049936115962</v>
       </c>
       <c r="B63" t="n">
-        <v>8.858120172054072</v>
+        <v>9.344638637583978</v>
       </c>
       <c r="C63" t="n">
-        <v>22.89958541563019</v>
+        <v>23.02926047534988</v>
       </c>
       <c r="D63" t="n">
-        <v>15.20586780251024</v>
+        <v>15.05251625003367</v>
       </c>
       <c r="E63" t="n">
-        <v>9.464270383047007</v>
+        <v>9.484745385872776</v>
       </c>
       <c r="F63" t="n">
-        <v>22.30467079399461</v>
+        <v>22.31500590214305</v>
       </c>
       <c r="G63" t="n">
-        <v>15.53492646604712</v>
+        <v>15.50735966648027</v>
       </c>
       <c r="H63" t="n">
-        <v>9.708719893692779</v>
+        <v>9.764113581826017</v>
       </c>
       <c r="I63" t="n">
-        <v>22.61914385952442</v>
+        <v>22.31817116471068</v>
       </c>
       <c r="J63" t="n">
-        <v>15.5832282622903</v>
+        <v>15.54085886141558</v>
       </c>
       <c r="K63" t="n">
-        <v>8.959173760938588</v>
+        <v>9.137116625307874</v>
       </c>
       <c r="L63" t="n">
-        <v>23.55264599740506</v>
+        <v>24.29044574755107</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>31.25089923162812</v>
+        <v>31.25491493267121</v>
       </c>
       <c r="B64" t="n">
-        <v>22.43896621348242</v>
+        <v>23.17859925265614</v>
       </c>
       <c r="C64" t="n">
-        <v>40.66516347034164</v>
+        <v>40.28735311795081</v>
       </c>
       <c r="D64" t="n">
-        <v>30.8018364942379</v>
+        <v>30.96320104021989</v>
       </c>
       <c r="E64" t="n">
-        <v>25.13474341826958</v>
+        <v>25.24905294040052</v>
       </c>
       <c r="F64" t="n">
-        <v>37.90265954646048</v>
+        <v>37.53216873471327</v>
       </c>
       <c r="G64" t="n">
-        <v>30.90973569781253</v>
+        <v>31.03083870337902</v>
       </c>
       <c r="H64" t="n">
-        <v>24.21589368321407</v>
+        <v>24.37603013695976</v>
       </c>
       <c r="I64" t="n">
-        <v>37.173252132424</v>
+        <v>37.04865678649077</v>
       </c>
       <c r="J64" t="n">
-        <v>30.80556674252408</v>
+        <v>30.97257226911029</v>
       </c>
       <c r="K64" t="n">
-        <v>20.91766385669221</v>
+        <v>21.13602186195196</v>
       </c>
       <c r="L64" t="n">
-        <v>41.00839812213756</v>
+        <v>41.23524890042275</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>11.41281831917297</v>
+        <v>11.41524614491785</v>
       </c>
       <c r="B65" t="n">
-        <v>6.808154441900464</v>
+        <v>6.622629696515681</v>
       </c>
       <c r="C65" t="n">
-        <v>16.58420183221083</v>
+        <v>16.5378976717569</v>
       </c>
       <c r="D65" t="n">
-        <v>11.40854569183903</v>
+        <v>11.42283663644395</v>
       </c>
       <c r="E65" t="n">
-        <v>6.816346489110071</v>
+        <v>6.578514075797703</v>
       </c>
       <c r="F65" t="n">
-        <v>16.47741136022033</v>
+        <v>16.48910779091807</v>
       </c>
       <c r="G65" t="n">
-        <v>11.31017920860333</v>
+        <v>11.31051967644574</v>
       </c>
       <c r="H65" t="n">
-        <v>7.036521595644972</v>
+        <v>6.916986933262264</v>
       </c>
       <c r="I65" t="n">
-        <v>16.73209835725578</v>
+        <v>16.69629919931474</v>
       </c>
       <c r="J65" t="n">
-        <v>11.65858969450079</v>
+        <v>11.63319405406719</v>
       </c>
       <c r="K65" t="n">
-        <v>6.673655744106933</v>
+        <v>6.473755040329971</v>
       </c>
       <c r="L65" t="n">
-        <v>17.24311905319186</v>
+        <v>17.56015386373054</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>22.99501541757448</v>
+        <v>22.9828793246361</v>
       </c>
       <c r="B66" t="n">
-        <v>17.6676455848844</v>
+        <v>17.6521139881358</v>
       </c>
       <c r="C66" t="n">
-        <v>28.42869922338597</v>
+        <v>28.61356053670567</v>
       </c>
       <c r="D66" t="n">
-        <v>22.67106408566617</v>
+        <v>22.67918598393452</v>
       </c>
       <c r="E66" t="n">
-        <v>17.78891405773436</v>
+        <v>17.67826225041593</v>
       </c>
       <c r="F66" t="n">
-        <v>27.45782308368279</v>
+        <v>27.62629671726691</v>
       </c>
       <c r="G66" t="n">
-        <v>22.80982998641136</v>
+        <v>22.78338628259828</v>
       </c>
       <c r="H66" t="n">
-        <v>18.08801874927386</v>
+        <v>18.32209435165106</v>
       </c>
       <c r="I66" t="n">
-        <v>27.15714070353466</v>
+        <v>27.08020988100041</v>
       </c>
       <c r="J66" t="n">
-        <v>22.76972688002416</v>
+        <v>22.72864310871614</v>
       </c>
       <c r="K66" t="n">
-        <v>16.7778532268517</v>
+        <v>16.31513302177422</v>
       </c>
       <c r="L66" t="n">
-        <v>30.01550140635695</v>
+        <v>30.32469840943828</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>22.1013049271542</v>
+        <v>22.07638364021146</v>
       </c>
       <c r="B67" t="n">
-        <v>17.79677779216277</v>
+        <v>17.45181522707583</v>
       </c>
       <c r="C67" t="n">
-        <v>27.02873282552762</v>
+        <v>27.26711836524866</v>
       </c>
       <c r="D67" t="n">
-        <v>22.07931862838856</v>
+        <v>22.03732132915964</v>
       </c>
       <c r="E67" t="n">
-        <v>17.98823482577687</v>
+        <v>17.86940294542235</v>
       </c>
       <c r="F67" t="n">
-        <v>26.54522697150175</v>
+        <v>26.57382861374123</v>
       </c>
       <c r="G67" t="n">
-        <v>22.00856522982772</v>
+        <v>22.05613448697508</v>
       </c>
       <c r="H67" t="n">
-        <v>18.18820966243644</v>
+        <v>17.98350781703667</v>
       </c>
       <c r="I67" t="n">
-        <v>26.51264462252063</v>
+        <v>26.54668645327401</v>
       </c>
       <c r="J67" t="n">
-        <v>21.80474572292768</v>
+        <v>21.81423184172523</v>
       </c>
       <c r="K67" t="n">
-        <v>16.54980585769636</v>
+        <v>16.31715303791546</v>
       </c>
       <c r="L67" t="n">
-        <v>27.7722464269501</v>
+        <v>28.01369873740935</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>26.84637544373297</v>
+        <v>26.97313621170727</v>
       </c>
       <c r="B68" t="n">
-        <v>20.25465720582273</v>
+        <v>20.35864680726727</v>
       </c>
       <c r="C68" t="n">
-        <v>35.25750619444456</v>
+        <v>34.57635310679963</v>
       </c>
       <c r="D68" t="n">
-        <v>27.06624785979034</v>
+        <v>27.17260542734898</v>
       </c>
       <c r="E68" t="n">
-        <v>21.9857061245029</v>
+        <v>22.11248542802313</v>
       </c>
       <c r="F68" t="n">
-        <v>32.39936303351799</v>
+        <v>32.08585270256221</v>
       </c>
       <c r="G68" t="n">
-        <v>26.87239111435436</v>
+        <v>27.0112674478221</v>
       </c>
       <c r="H68" t="n">
-        <v>21.31321816266057</v>
+        <v>21.64972065936209</v>
       </c>
       <c r="I68" t="n">
-        <v>32.24031910220457</v>
+        <v>32.15467241109248</v>
       </c>
       <c r="J68" t="n">
-        <v>26.95698728728985</v>
+        <v>27.06905666578572</v>
       </c>
       <c r="K68" t="n">
-        <v>18.81129990216872</v>
+        <v>19.36968353812457</v>
       </c>
       <c r="L68" t="n">
-        <v>36.1639157590642</v>
+        <v>35.63848828786475</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>11.34366280737634</v>
+        <v>11.10812608021499</v>
       </c>
       <c r="B69" t="n">
-        <v>5.575032667104495</v>
+        <v>5.641428154898099</v>
       </c>
       <c r="C69" t="n">
-        <v>18.65764877085816</v>
+        <v>18.47464078881614</v>
       </c>
       <c r="D69" t="n">
-        <v>10.85396397284632</v>
+        <v>10.77158242807228</v>
       </c>
       <c r="E69" t="n">
-        <v>5.445729602305348</v>
+        <v>5.479406728098866</v>
       </c>
       <c r="F69" t="n">
-        <v>18.66683966691313</v>
+        <v>18.83714680464743</v>
       </c>
       <c r="G69" t="n">
-        <v>10.98365026162574</v>
+        <v>10.95783852863999</v>
       </c>
       <c r="H69" t="n">
-        <v>5.346766396151825</v>
+        <v>5.427677911598485</v>
       </c>
       <c r="I69" t="n">
-        <v>17.82780402452829</v>
+        <v>18.35709890618492</v>
       </c>
       <c r="J69" t="n">
-        <v>10.77144093672512</v>
+        <v>10.77723033600584</v>
       </c>
       <c r="K69" t="n">
-        <v>5.037323440912261</v>
+        <v>5.093568950398308</v>
       </c>
       <c r="L69" t="n">
-        <v>19.75027011694356</v>
+        <v>20.15849580080374</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>24.8997779607469</v>
+        <v>25.0125638721939</v>
       </c>
       <c r="B70" t="n">
-        <v>18.75148149616424</v>
+        <v>18.3751700701712</v>
       </c>
       <c r="C70" t="n">
-        <v>32.22094413184367</v>
+        <v>32.11312727370412</v>
       </c>
       <c r="D70" t="n">
-        <v>24.81052981368865</v>
+        <v>25.01098558473295</v>
       </c>
       <c r="E70" t="n">
-        <v>20.23232467476711</v>
+        <v>20.30650803657635</v>
       </c>
       <c r="F70" t="n">
-        <v>29.74853683529229</v>
+        <v>30.031757889081</v>
       </c>
       <c r="G70" t="n">
-        <v>24.91424083230814</v>
+        <v>24.95861142634154</v>
       </c>
       <c r="H70" t="n">
-        <v>19.98577033908393</v>
+        <v>20.17102449135126</v>
       </c>
       <c r="I70" t="n">
-        <v>30.21081552239973</v>
+        <v>30.0494633320525</v>
       </c>
       <c r="J70" t="n">
-        <v>24.83482935799606</v>
+        <v>24.84269657611258</v>
       </c>
       <c r="K70" t="n">
-        <v>16.66366650385772</v>
+        <v>16.25051506507403</v>
       </c>
       <c r="L70" t="n">
-        <v>34.25747131916352</v>
+        <v>33.90421431942768</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>19.74798276541577</v>
+        <v>19.67886908881562</v>
       </c>
       <c r="B71" t="n">
-        <v>16.35510563574467</v>
+        <v>16.47779131439829</v>
       </c>
       <c r="C71" t="n">
-        <v>23.84403386767934</v>
+        <v>23.74654881679647</v>
       </c>
       <c r="D71" t="n">
-        <v>19.67735553894223</v>
+        <v>19.64256785877452</v>
       </c>
       <c r="E71" t="n">
-        <v>16.81934492637736</v>
+        <v>16.88583505025246</v>
       </c>
       <c r="F71" t="n">
-        <v>22.66781668396511</v>
+        <v>22.64086843200622</v>
       </c>
       <c r="G71" t="n">
-        <v>19.82371346676947</v>
+        <v>19.83276672779148</v>
       </c>
       <c r="H71" t="n">
-        <v>16.83636043154836</v>
+        <v>16.74676168060025</v>
       </c>
       <c r="I71" t="n">
-        <v>22.99942362722122</v>
+        <v>22.98989762669703</v>
       </c>
       <c r="J71" t="n">
-        <v>19.77851445639676</v>
+        <v>19.76938926921078</v>
       </c>
       <c r="K71" t="n">
-        <v>14.39059228829236</v>
+        <v>14.550934979648</v>
       </c>
       <c r="L71" t="n">
-        <v>25.62911937026434</v>
+        <v>25.56935208302299</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>23.02415579428701</v>
+        <v>23.04700983339436</v>
       </c>
       <c r="B72" t="n">
-        <v>18.9659120963649</v>
+        <v>19.04569496127494</v>
       </c>
       <c r="C72" t="n">
-        <v>27.73380674854334</v>
+        <v>27.85423574473544</v>
       </c>
       <c r="D72" t="n">
-        <v>22.88056118494628</v>
+        <v>22.88942256215356</v>
       </c>
       <c r="E72" t="n">
-        <v>19.58285120643897</v>
+        <v>19.58345557823922</v>
       </c>
       <c r="F72" t="n">
-        <v>26.22601805895703</v>
+        <v>26.17725354605357</v>
       </c>
       <c r="G72" t="n">
-        <v>22.95195115732817</v>
+        <v>22.95808923988204</v>
       </c>
       <c r="H72" t="n">
-        <v>19.57939513718696</v>
+        <v>19.17934180386744</v>
       </c>
       <c r="I72" t="n">
-        <v>26.75566726614797</v>
+        <v>26.84665074385573</v>
       </c>
       <c r="J72" t="n">
-        <v>22.907067544102</v>
+        <v>22.95264958921099</v>
       </c>
       <c r="K72" t="n">
-        <v>17.54543972324596</v>
+        <v>17.42097015155439</v>
       </c>
       <c r="L72" t="n">
-        <v>28.4297224345897</v>
+        <v>28.48758991070105</v>
       </c>
     </row>
   </sheetData>
